--- a/start/data/disjunctionExpTest8EN_1.xlsx
+++ b/start/data/disjunctionExpTest8EN_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leibnizzas-my.sharepoint.com/personal/benz_leibniz-zas_de/Documents/Projekte/AIBR_Experiments/2025 Disjunction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6633AE01-5AE7-42E4-8A01-567721857675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FDD36C7-EA4E-4BA6-B7AE-274863544B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="235">
   <si>
     <t>Exp</t>
   </si>
@@ -630,7 +630,7 @@
     <t xml:space="preserve"> Imagine, there is a list of results in the blue area.  Now produce a description with 5 sentences, using as many options as possible. Use the +/- button to open new sentences. For this exercise, the meaning of your sentences is irrelevant. </t>
   </si>
   <si>
-    <t>s3path</t>
+    <t>s3path_base</t>
   </si>
   <si>
     <t>https://disjunction-experiment-pictures-zas2025.s3.eu-central-1.amazonaws.com</t>
@@ -718,15 +718,6 @@
   </si>
   <si>
     <t>allowed values: dropbox, number, radio</t>
-  </si>
-  <si>
-    <t>interpreter_input_choices</t>
-  </si>
-  <si>
-    <t>yes;no</t>
-  </si>
-  <si>
-    <t>choices for intepreter decisions; should be divided by semicolon (;)</t>
   </si>
   <si>
     <t>interpreter_title</t>
@@ -29673,7 +29664,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -29800,61 +29791,55 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>220</v>
-      </c>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -29863,7 +29848,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
@@ -29872,7 +29857,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
@@ -29881,7 +29866,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
@@ -29890,7 +29875,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
@@ -29899,7 +29884,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
@@ -29908,10 +29893,10 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C23" s="8"/>
     </row>
